--- a/data_collection.xlsx
+++ b/data_collection.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ABD6BA-047D-4CBA-B560-192FBE4501BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91CC2B-FC44-4326-8C32-1DFFAD6CF008}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="5813" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="5813" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig 3" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Sup_Fig_5_fasted_glucose" sheetId="3" r:id="rId3"/>
     <sheet name="Sup_Fig_5_fasted_lactate" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="206">
   <si>
     <t>Compound</t>
   </si>
@@ -625,6 +627,27 @@
   </si>
   <si>
     <t>M11_Sp2</t>
+  </si>
+  <si>
+    <t>m+0</t>
+  </si>
+  <si>
+    <t>m+1</t>
+  </si>
+  <si>
+    <t>m+2</t>
+  </si>
+  <si>
+    <t>m+3</t>
+  </si>
+  <si>
+    <t>m+4</t>
+  </si>
+  <si>
+    <t>m+5</t>
+  </si>
+  <si>
+    <t>m+6</t>
   </si>
 </sst>
 </file>
@@ -1362,6 +1385,266 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sup Fig 5'!$F$4:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>m+0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m+1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m+2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m+3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>m+4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>m+5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>m+6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sup Fig 5'!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.86547061650000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.62935115E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4443539999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4609369999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7472494999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0801305000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7503200499999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2137-4EE0-B797-011AA6AA6682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="42"/>
+        <c:overlap val="-27"/>
+        <c:axId val="815525752"/>
+        <c:axId val="815526392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="815525752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815526392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815526392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815525752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1443,6 +1726,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2991,6 +3314,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3069,16 +3895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>111919</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3100,6 +3926,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307183</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F439B8C9-400A-4955-BB24-AAE50C016FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4009,14 +4873,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E50883-284C-4414-B0AC-F567146F3863}">
   <dimension ref="A3:U91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.73046875" customWidth="1"/>
-    <col min="14" max="14" width="11.796875" customWidth="1"/>
+    <col min="14" max="14" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -4049,6 +4913,12 @@
       <c r="D4">
         <v>0.86452670847747703</v>
       </c>
+      <c r="F4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4">
+        <v>0.86547061650000001</v>
+      </c>
       <c r="N4" t="s">
         <v>3</v>
       </c>
@@ -4072,6 +4942,12 @@
       <c r="D5">
         <v>4.42823885160403E-2</v>
       </c>
+      <c r="F5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>1.62935115E-2</v>
+      </c>
       <c r="N5" t="s">
         <v>3</v>
       </c>
@@ -4095,6 +4971,12 @@
       <c r="D6">
         <v>5.0997967538972497E-2</v>
       </c>
+      <c r="F6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6">
+        <v>8.4443539999999994E-3</v>
+      </c>
       <c r="N6" t="s">
         <v>3</v>
       </c>
@@ -4118,6 +5000,12 @@
       <c r="D7">
         <v>3.6183391403535603E-2</v>
       </c>
+      <c r="F7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7">
+        <v>9.4609369999999991E-3</v>
+      </c>
       <c r="N7" t="s">
         <v>3</v>
       </c>
@@ -4141,6 +5029,12 @@
       <c r="D8">
         <v>2.7847145601300502E-3</v>
       </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8">
+        <v>1.7472494999999999E-3</v>
+      </c>
       <c r="N8" t="s">
         <v>3</v>
       </c>
@@ -4164,6 +5058,12 @@
       <c r="D9">
         <v>7.2114908456913005E-4</v>
       </c>
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9">
+        <v>1.0801305000000001E-3</v>
+      </c>
       <c r="N9" t="s">
         <v>3</v>
       </c>
@@ -4186,6 +5086,12 @@
       </c>
       <c r="D10">
         <v>5.0368041927554804E-4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10">
+        <v>9.7503200499999998E-2</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -5916,7 +6822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91A95FF-790F-41A9-B52C-37FE637D906C}">
   <dimension ref="A1:DT66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="DK12" sqref="DK12"/>
     </sheetView>
   </sheetViews>
@@ -26019,8 +26925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9446E6-6AE0-455C-8258-D62E2CD929A8}">
   <dimension ref="A1:CV66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data_collection.xlsx
+++ b/data_collection.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91CC2B-FC44-4326-8C32-1DFFAD6CF008}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4620125-426F-4140-975F-5562E4F12552}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="5813" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,6 @@
     <sheet name="Sup_Fig_5_fasted_lactate" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6823,7 +6822,7 @@
   <dimension ref="A1:DT66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DK12" sqref="DK12"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
